--- a/airlines_reviews_preprocessed_labeled.xlsx
+++ b/airlines_reviews_preprocessed_labeled.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -633,7 +633,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -713,7 +713,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -757,7 +757,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -797,7 +797,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -837,7 +837,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -877,7 +877,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -917,7 +917,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -961,7 +961,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Air France</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1915,7 +1915,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2829,7 +2829,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Iberia</t>
+          <t>iberia</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -4285,7 +4285,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -4487,7 +4487,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -4931,7 +4931,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -5013,7 +5013,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -5173,7 +5173,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Lufthansa</t>
+          <t>lufthansa</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -5463,7 +5463,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -5503,7 +5503,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E130" t="n">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -5915,7 +5915,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -6371,7 +6371,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -6731,7 +6731,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -6811,7 +6811,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -7217,7 +7217,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -7301,7 +7301,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -7429,7 +7429,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Vueling</t>
+          <t>vueling</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -7829,7 +7829,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -7909,7 +7909,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -8069,7 +8069,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -8149,7 +8149,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -8629,7 +8629,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -8669,7 +8669,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -8909,7 +8909,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -9029,7 +9029,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Emirates</t>
+          <t>emirates</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -9629,7 +9629,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -9869,7 +9869,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -10069,7 +10069,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -10229,7 +10229,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -10349,7 +10349,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -10549,7 +10549,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -10709,7 +10709,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Air Corsica</t>
+          <t>air corsica</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>RyanAir</t>
+          <t>ryanair</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>RyanAir</t>
+          <t>ryanair</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -11029,7 +11029,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -11069,7 +11069,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>TurkishAirlines</t>
+          <t>turkishairlines</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Singapore Airlines</t>
+          <t>singapore airlines</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -11269,7 +11269,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -11509,7 +11509,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Brussels Airlines</t>
+          <t>brussels airlines</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Air Serbia</t>
+          <t>air serbia</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -11669,7 +11669,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -11749,7 +11749,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -11789,7 +11789,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -11909,7 +11909,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -12149,7 +12149,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -12193,7 +12193,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -12433,7 +12433,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -12553,7 +12553,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -12833,7 +12833,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>British Airways</t>
+          <t>british airways</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -13061,7 +13061,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -13199,7 +13199,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -13247,7 +13247,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -13339,7 +13339,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -13429,7 +13429,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -13609,7 +13609,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -13651,7 +13651,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -13735,7 +13735,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -13777,7 +13777,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -13871,7 +13871,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -13921,7 +13921,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -13967,7 +13967,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -14015,7 +14015,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -14057,7 +14057,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -14149,7 +14149,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -14191,7 +14191,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -14241,7 +14241,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -14285,7 +14285,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -14465,7 +14465,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -14603,7 +14603,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -14741,7 +14741,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -14785,7 +14785,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E348" t="n">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -14975,7 +14975,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -15019,7 +15019,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E353" t="n">
@@ -15065,7 +15065,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -15109,7 +15109,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -15157,7 +15157,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E356" t="n">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -15259,7 +15259,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -15299,7 +15299,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -15379,7 +15379,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -15419,7 +15419,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E362" t="n">
@@ -15459,7 +15459,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E363" t="n">
@@ -15499,7 +15499,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -15539,7 +15539,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -15579,7 +15579,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E366" t="n">
@@ -15619,7 +15619,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E368" t="n">
@@ -15699,7 +15699,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E369" t="n">
@@ -15739,7 +15739,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E370" t="n">
@@ -15779,7 +15779,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E372" t="n">
@@ -15859,7 +15859,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -15899,7 +15899,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E374" t="n">
@@ -15939,7 +15939,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E375" t="n">
@@ -15979,7 +15979,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E376" t="n">
@@ -16019,7 +16019,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E377" t="n">
@@ -16059,7 +16059,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E379" t="n">
@@ -16139,7 +16139,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E380" t="n">
@@ -16179,7 +16179,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E381" t="n">
@@ -16219,7 +16219,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E382" t="n">
@@ -16259,7 +16259,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E383" t="n">
@@ -16299,7 +16299,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -16339,7 +16339,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -16379,7 +16379,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E386" t="n">
@@ -16419,7 +16419,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E387" t="n">
@@ -16459,7 +16459,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E388" t="n">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E389" t="n">
@@ -16539,7 +16539,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E390" t="n">
@@ -16579,7 +16579,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E391" t="n">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -16659,7 +16659,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E393" t="n">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E394" t="n">
@@ -16739,7 +16739,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E395" t="n">
@@ -16779,7 +16779,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E396" t="n">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E397" t="n">
@@ -16859,7 +16859,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E398" t="n">
@@ -16899,7 +16899,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E399" t="n">
@@ -16939,7 +16939,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E400" t="n">
@@ -16979,7 +16979,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E401" t="n">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E402" t="n">
@@ -17059,7 +17059,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E403" t="n">
@@ -17099,7 +17099,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E404" t="n">
@@ -17139,7 +17139,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E405" t="n">
@@ -17179,7 +17179,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E406" t="n">
@@ -17219,7 +17219,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E407" t="n">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E408" t="n">
@@ -17299,7 +17299,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E409" t="n">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E410" t="n">
@@ -17379,7 +17379,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E411" t="n">
@@ -17419,7 +17419,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E412" t="n">
@@ -17459,7 +17459,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E413" t="n">
@@ -17499,7 +17499,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E414" t="n">
@@ -17539,7 +17539,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E415" t="n">
@@ -17579,7 +17579,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E416" t="n">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E417" t="n">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E418" t="n">
@@ -17699,7 +17699,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E419" t="n">
@@ -17739,7 +17739,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E420" t="n">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E421" t="n">
@@ -17819,7 +17819,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E422" t="n">
@@ -17859,7 +17859,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E423" t="n">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E424" t="n">
@@ -17939,7 +17939,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E425" t="n">
@@ -17979,7 +17979,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E426" t="n">
@@ -18019,7 +18019,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E427" t="n">
@@ -18059,7 +18059,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E428" t="n">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E429" t="n">
@@ -18139,7 +18139,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E430" t="n">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E431" t="n">
@@ -18219,7 +18219,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E432" t="n">
@@ -18259,7 +18259,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E433" t="n">
@@ -18299,7 +18299,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E434" t="n">
@@ -18339,7 +18339,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E435" t="n">
@@ -18379,7 +18379,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E436" t="n">
@@ -18419,7 +18419,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E437" t="n">
@@ -18459,7 +18459,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E438" t="n">
@@ -18499,7 +18499,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E439" t="n">
@@ -18539,7 +18539,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E440" t="n">
@@ -18579,7 +18579,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E441" t="n">
@@ -18619,7 +18619,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E442" t="n">
@@ -18659,7 +18659,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E443" t="n">
@@ -18699,7 +18699,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E444" t="n">
@@ -18739,7 +18739,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E445" t="n">
@@ -18779,7 +18779,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E446" t="n">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E447" t="n">
@@ -18859,7 +18859,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E448" t="n">
@@ -18899,7 +18899,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E449" t="n">
@@ -18939,7 +18939,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E450" t="n">
@@ -18979,7 +18979,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E451" t="n">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E452" t="n">
@@ -19059,7 +19059,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E453" t="n">
@@ -19099,7 +19099,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E454" t="n">
@@ -19139,7 +19139,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -19179,7 +19179,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -19219,7 +19219,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -19259,7 +19259,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -19299,7 +19299,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E459" t="n">
@@ -19339,7 +19339,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E460" t="n">
@@ -19379,7 +19379,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E461" t="n">
@@ -19419,7 +19419,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -19499,7 +19499,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -19539,7 +19539,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -19579,7 +19579,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -19619,7 +19619,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -19659,7 +19659,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -19699,7 +19699,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -19739,7 +19739,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -19779,7 +19779,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -19819,7 +19819,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E472" t="n">
@@ -19859,7 +19859,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -19899,7 +19899,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -19979,7 +19979,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -20019,7 +20019,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -20059,7 +20059,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -20139,7 +20139,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -20179,7 +20179,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -20219,7 +20219,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -20259,7 +20259,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E483" t="n">
@@ -20299,7 +20299,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -20339,7 +20339,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -20379,7 +20379,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -20459,7 +20459,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E488" t="n">
@@ -20499,7 +20499,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -20539,7 +20539,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -20659,7 +20659,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -20699,7 +20699,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E494" t="n">
@@ -20739,7 +20739,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -20779,7 +20779,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -20819,7 +20819,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -20859,7 +20859,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E498" t="n">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -20939,7 +20939,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E500" t="n">
@@ -20979,7 +20979,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E501" t="n">
@@ -21019,7 +21019,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -21059,7 +21059,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E503" t="n">
@@ -21099,7 +21099,7 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E504" t="n">
@@ -21139,7 +21139,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E505" t="n">
@@ -21179,7 +21179,7 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E506" t="n">
@@ -21219,7 +21219,7 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E507" t="n">
@@ -21259,7 +21259,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E508" t="n">
@@ -21299,7 +21299,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E509" t="n">
@@ -21339,7 +21339,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E510" t="n">
@@ -21379,7 +21379,7 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E511" t="n">
@@ -21419,7 +21419,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E512" t="n">
@@ -21459,7 +21459,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E513" t="n">
@@ -21499,7 +21499,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E514" t="n">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E515" t="n">
@@ -21579,7 +21579,7 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E516" t="n">
@@ -21619,7 +21619,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E517" t="n">
@@ -21659,7 +21659,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E518" t="n">
@@ -21699,7 +21699,7 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E519" t="n">
@@ -21739,7 +21739,7 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E520" t="n">
@@ -21779,7 +21779,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E521" t="n">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E522" t="n">
@@ -21859,7 +21859,7 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E523" t="n">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E524" t="n">
@@ -21939,7 +21939,7 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E525" t="n">
@@ -21979,7 +21979,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E526" t="n">
@@ -22019,7 +22019,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E527" t="n">
@@ -22059,7 +22059,7 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E528" t="n">
@@ -22099,7 +22099,7 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E529" t="n">
@@ -22139,7 +22139,7 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E530" t="n">
@@ -22179,7 +22179,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E531" t="n">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E532" t="n">
@@ -22259,7 +22259,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E533" t="n">
@@ -22299,7 +22299,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E534" t="n">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E535" t="n">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E536" t="n">
@@ -22419,7 +22419,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E537" t="n">
@@ -22459,7 +22459,7 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E538" t="n">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E539" t="n">
@@ -22539,7 +22539,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E540" t="n">
@@ -22579,7 +22579,7 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E541" t="n">
@@ -22619,7 +22619,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E542" t="n">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E543" t="n">
@@ -22699,7 +22699,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E544" t="n">
@@ -22739,7 +22739,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E545" t="n">
@@ -22779,7 +22779,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E546" t="n">
@@ -22819,7 +22819,7 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E547" t="n">
@@ -22859,7 +22859,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E548" t="n">
@@ -22899,7 +22899,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E549" t="n">
@@ -22939,7 +22939,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E550" t="n">
@@ -22979,7 +22979,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E551" t="n">
@@ -23019,7 +23019,7 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E552" t="n">
@@ -23059,7 +23059,7 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>air-france</t>
+          <t>air france</t>
         </is>
       </c>
       <c r="E553" t="n">
